--- a/xlsx/country_comparison/group_defended_5_positive.xlsx
+++ b/xlsx/country_comparison/group_defended_5_positive.xlsx
@@ -431,34 +431,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.382076886785003</v>
+        <v>0.401584917718197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.633018990267356</v>
+        <v>0.637778162087043</v>
       </c>
       <c r="D2" t="n">
-        <v>0.553355787515108</v>
+        <v>0.550838157170327</v>
       </c>
       <c r="E2" t="n">
-        <v>0.293729372937294</v>
+        <v>0.296396998452838</v>
       </c>
       <c r="F2" t="n">
-        <v>0.484628749117589</v>
+        <v>0.417081849803477</v>
       </c>
       <c r="G2" t="n">
-        <v>0.586909059326181</v>
+        <v>0.570127697124816</v>
       </c>
       <c r="H2" t="n">
-        <v>0.468247137513088</v>
+        <v>0.518917265906563</v>
       </c>
       <c r="I2" t="n">
-        <v>0.575563262749213</v>
+        <v>0.534191493704453</v>
       </c>
       <c r="J2" t="n">
-        <v>0.451650231018717</v>
+        <v>0.424479767897812</v>
       </c>
       <c r="K2" t="n">
-        <v>0.320989490193126</v>
+        <v>0.395332502056133</v>
       </c>
     </row>
     <row r="3">
@@ -466,34 +466,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.172855182025851</v>
+        <v>0.204546304381004</v>
       </c>
       <c r="C3" t="n">
-        <v>0.31906544512392</v>
+        <v>0.315291711811492</v>
       </c>
       <c r="D3" t="n">
-        <v>0.349204135108324</v>
+        <v>0.300392363145735</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0946094609460946</v>
+        <v>0.0924174046493218</v>
       </c>
       <c r="F3" t="n">
-        <v>0.308571793902927</v>
+        <v>0.246015914523933</v>
       </c>
       <c r="G3" t="n">
-        <v>0.293512063883866</v>
+        <v>0.278202996866241</v>
       </c>
       <c r="H3" t="n">
-        <v>0.302379221985799</v>
+        <v>0.354655828183308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.281954566003864</v>
+        <v>0.288534250299977</v>
       </c>
       <c r="J3" t="n">
-        <v>0.185884607854514</v>
+        <v>0.158098965796166</v>
       </c>
       <c r="K3" t="n">
-        <v>0.19231514392574</v>
+        <v>0.168993494292012</v>
       </c>
     </row>
     <row r="4">
@@ -501,34 +501,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.209221704759151</v>
+        <v>0.197038613337193</v>
       </c>
       <c r="C4" t="n">
-        <v>0.313953545143436</v>
+        <v>0.322486450275551</v>
       </c>
       <c r="D4" t="n">
-        <v>0.204151652406784</v>
+        <v>0.250445794024592</v>
       </c>
       <c r="E4" t="n">
-        <v>0.199119911991199</v>
+        <v>0.203979593803517</v>
       </c>
       <c r="F4" t="n">
-        <v>0.176056955214663</v>
+        <v>0.171065935279544</v>
       </c>
       <c r="G4" t="n">
-        <v>0.293396995442315</v>
+        <v>0.291924700258575</v>
       </c>
       <c r="H4" t="n">
-        <v>0.165867915527289</v>
+        <v>0.164261437723254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.293608696745349</v>
+        <v>0.245657243404476</v>
       </c>
       <c r="J4" t="n">
-        <v>0.265765623164203</v>
+        <v>0.266380802101646</v>
       </c>
       <c r="K4" t="n">
-        <v>0.128674346267386</v>
+        <v>0.226339007764121</v>
       </c>
     </row>
     <row r="5">
@@ -536,34 +536,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.424662360542014</v>
+        <v>0.418116802640659</v>
       </c>
       <c r="C5" t="n">
-        <v>0.159224385930774</v>
+        <v>0.16603824268881</v>
       </c>
       <c r="D5" t="n">
-        <v>0.307360143679643</v>
+        <v>0.286241255023842</v>
       </c>
       <c r="E5" t="n">
-        <v>0.485148514851485</v>
+        <v>0.456524566025076</v>
       </c>
       <c r="F5" t="n">
-        <v>0.255609613667641</v>
+        <v>0.395412378179461</v>
       </c>
       <c r="G5" t="n">
-        <v>0.150193287270966</v>
+        <v>0.161158141587076</v>
       </c>
       <c r="H5" t="n">
-        <v>0.311111186294925</v>
+        <v>0.26991147731929</v>
       </c>
       <c r="I5" t="n">
-        <v>0.210022307887246</v>
+        <v>0.239761605193291</v>
       </c>
       <c r="J5" t="n">
-        <v>0.330102129649219</v>
+        <v>0.366607672726037</v>
       </c>
       <c r="K5" t="n">
-        <v>0.317603177008681</v>
+        <v>0.311689912311643</v>
       </c>
     </row>
     <row r="6">
@@ -571,34 +571,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.179912659949693</v>
+        <v>0.150543713024043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.149469223181291</v>
+        <v>0.162572913497141</v>
       </c>
       <c r="D6" t="n">
-        <v>0.118814680522525</v>
+        <v>0.100922603953725</v>
       </c>
       <c r="E6" t="n">
-        <v>0.167216721672167</v>
+        <v>0.186702773722239</v>
       </c>
       <c r="F6" t="n">
-        <v>0.241524815285439</v>
+        <v>0.166729640366366</v>
       </c>
       <c r="G6" t="n">
-        <v>0.123271365701163</v>
+        <v>0.136003358761598</v>
       </c>
       <c r="H6" t="n">
-        <v>0.175273262139924</v>
+        <v>0.143280020961804</v>
       </c>
       <c r="I6" t="n">
-        <v>0.205405420354532</v>
+        <v>0.19604593026058</v>
       </c>
       <c r="J6" t="n">
-        <v>0.148828331559889</v>
+        <v>0.162029812146505</v>
       </c>
       <c r="K6" t="n">
-        <v>0.256114038094564</v>
+        <v>0.22356670774197</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/group_defended_5_positive.xlsx
+++ b/xlsx/country_comparison/group_defended_5_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Humans or Sentient beings</t>
@@ -425,180 +431,216 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.401584917718197</v>
+        <v>0.446323819000182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.637778162087043</v>
+        <v>0.500031777371219</v>
       </c>
       <c r="D2" t="n">
-        <v>0.550838157170327</v>
+        <v>0.403728342686857</v>
       </c>
       <c r="E2" t="n">
-        <v>0.296396998452838</v>
+        <v>0.606454502103649</v>
       </c>
       <c r="F2" t="n">
-        <v>0.417081849803477</v>
+        <v>0.543166443561924</v>
       </c>
       <c r="G2" t="n">
-        <v>0.570127697124816</v>
+        <v>0.40862481827325</v>
       </c>
       <c r="H2" t="n">
-        <v>0.518917265906563</v>
+        <v>0.520635206979125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.534191493704453</v>
+        <v>0.45163215452811</v>
       </c>
       <c r="J2" t="n">
-        <v>0.424479767897812</v>
+        <v>0.555843554662492</v>
       </c>
       <c r="K2" t="n">
-        <v>0.395332502056133</v>
+        <v>0.295463321618657</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.568215620604128</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.43396167722944</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.204546304381004</v>
+        <v>0.207038236368399</v>
       </c>
       <c r="C3" t="n">
-        <v>0.315291711811492</v>
+        <v>0.267798478633482</v>
       </c>
       <c r="D3" t="n">
-        <v>0.300392363145735</v>
+        <v>0.213628483878236</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0924174046493218</v>
+        <v>0.315582655014669</v>
       </c>
       <c r="F3" t="n">
-        <v>0.246015914523933</v>
+        <v>0.304540863124868</v>
       </c>
       <c r="G3" t="n">
-        <v>0.278202996866241</v>
+        <v>0.246260315140413</v>
       </c>
       <c r="H3" t="n">
-        <v>0.354655828183308</v>
+        <v>0.339169228367069</v>
       </c>
       <c r="I3" t="n">
-        <v>0.288534250299977</v>
+        <v>0.181724428843866</v>
       </c>
       <c r="J3" t="n">
-        <v>0.158098965796166</v>
+        <v>0.3090858048213</v>
       </c>
       <c r="K3" t="n">
-        <v>0.168993494292012</v>
+        <v>0.0928217672043425</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.276652048791799</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.176742950122449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.197038613337193</v>
+        <v>0.239285582631783</v>
       </c>
       <c r="C4" t="n">
-        <v>0.322486450275551</v>
+        <v>0.232233298737737</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250445794024592</v>
+        <v>0.190099858808621</v>
       </c>
       <c r="E4" t="n">
-        <v>0.203979593803517</v>
+        <v>0.29087184708898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.171065935279544</v>
+        <v>0.238625580437056</v>
       </c>
       <c r="G4" t="n">
-        <v>0.291924700258575</v>
+        <v>0.162364503132837</v>
       </c>
       <c r="H4" t="n">
-        <v>0.164261437723254</v>
+        <v>0.181465978612055</v>
       </c>
       <c r="I4" t="n">
-        <v>0.245657243404476</v>
+        <v>0.269907725684244</v>
       </c>
       <c r="J4" t="n">
-        <v>0.266380802101646</v>
+        <v>0.246757749841191</v>
       </c>
       <c r="K4" t="n">
-        <v>0.226339007764121</v>
+        <v>0.202641554414314</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.29156357181233</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.257218727106991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.418116802640659</v>
+        <v>0.333002355422151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16603824268881</v>
+        <v>0.300537158888977</v>
       </c>
       <c r="D5" t="n">
-        <v>0.286241255023842</v>
+        <v>0.421398669942422</v>
       </c>
       <c r="E5" t="n">
-        <v>0.456524566025076</v>
+        <v>0.191854984973649</v>
       </c>
       <c r="F5" t="n">
-        <v>0.395412378179461</v>
+        <v>0.289001041734699</v>
       </c>
       <c r="G5" t="n">
-        <v>0.161158141587076</v>
+        <v>0.377133090520575</v>
       </c>
       <c r="H5" t="n">
-        <v>0.26991147731929</v>
+        <v>0.262477886538552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.239761605193291</v>
+        <v>0.32286139809918</v>
       </c>
       <c r="J5" t="n">
-        <v>0.366607672726037</v>
+        <v>0.220040188372387</v>
       </c>
       <c r="K5" t="n">
-        <v>0.311689912311643</v>
+        <v>0.451967910042794</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.156534240851949</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.338566502379068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.150543713024043</v>
+        <v>0.168467905417066</v>
       </c>
       <c r="C6" t="n">
-        <v>0.162572913497141</v>
+        <v>0.156531801849446</v>
       </c>
       <c r="D6" t="n">
-        <v>0.100922603953725</v>
+        <v>0.141785829240512</v>
       </c>
       <c r="E6" t="n">
-        <v>0.186702773722239</v>
+        <v>0.16615846782681</v>
       </c>
       <c r="F6" t="n">
-        <v>0.166729640366366</v>
+        <v>0.10824933493899</v>
       </c>
       <c r="G6" t="n">
-        <v>0.136003358761598</v>
+        <v>0.188864548775754</v>
       </c>
       <c r="H6" t="n">
-        <v>0.143280020961804</v>
+        <v>0.150598969781752</v>
       </c>
       <c r="I6" t="n">
-        <v>0.19604593026058</v>
+        <v>0.187038191288665</v>
       </c>
       <c r="J6" t="n">
-        <v>0.162029812146505</v>
+        <v>0.171252249950601</v>
       </c>
       <c r="K6" t="n">
-        <v>0.22356670774197</v>
+        <v>0.191667834390133</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.141491115102103</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.17529311108781</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/group_defended_5_positive.xlsx
+++ b/xlsx/country_comparison/group_defended_5_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -437,16 +440,19 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.446323819000182</v>
+        <v>0.453632902569712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.500031777371219</v>
+        <v>0.500031777371218</v>
       </c>
       <c r="D2" t="n">
         <v>0.403728342686857</v>
@@ -473,18 +479,21 @@
         <v>0.295463321618657</v>
       </c>
       <c r="L2" t="n">
+        <v>0.49848234887489</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.568215620604128</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.43396167722944</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.207038236368399</v>
+        <v>0.2311635817686</v>
       </c>
       <c r="C3" t="n">
         <v>0.267798478633482</v>
@@ -502,7 +511,7 @@
         <v>0.246260315140413</v>
       </c>
       <c r="H3" t="n">
-        <v>0.339169228367069</v>
+        <v>0.33916922836707</v>
       </c>
       <c r="I3" t="n">
         <v>0.181724428843866</v>
@@ -514,18 +523,21 @@
         <v>0.0928217672043425</v>
       </c>
       <c r="L3" t="n">
+        <v>0.379199703236798</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.276652048791799</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.176742950122449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239285582631783</v>
+        <v>0.222469320801112</v>
       </c>
       <c r="C4" t="n">
         <v>0.232233298737737</v>
@@ -555,18 +567,21 @@
         <v>0.202641554414314</v>
       </c>
       <c r="L4" t="n">
+        <v>0.119282645638092</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.29156357181233</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.257218727106991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.333002355422151</v>
+        <v>0.318228826507911</v>
       </c>
       <c r="C5" t="n">
         <v>0.300537158888977</v>
@@ -596,18 +611,21 @@
         <v>0.451967910042794</v>
       </c>
       <c r="L5" t="n">
+        <v>0.227576614712255</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.156534240851949</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.338566502379068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.168467905417066</v>
+        <v>0.173132661925441</v>
       </c>
       <c r="C6" t="n">
         <v>0.156531801849446</v>
@@ -616,7 +634,7 @@
         <v>0.141785829240512</v>
       </c>
       <c r="E6" t="n">
-        <v>0.16615846782681</v>
+        <v>0.166158467826809</v>
       </c>
       <c r="F6" t="n">
         <v>0.10824933493899</v>
@@ -637,9 +655,12 @@
         <v>0.191667834390133</v>
       </c>
       <c r="L6" t="n">
+        <v>0.201756188330484</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.141491115102103</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.17529311108781</v>
       </c>
     </row>

--- a/xlsx/country_comparison/group_defended_5_positive.xlsx
+++ b/xlsx/country_comparison/group_defended_5_positive.xlsx
@@ -449,7 +449,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.453632902569712</v>
+        <v>0.453581378758874</v>
       </c>
       <c r="C2" t="n">
         <v>0.500031777371218</v>
@@ -476,16 +476,16 @@
         <v>0.555843554662492</v>
       </c>
       <c r="K2" t="n">
-        <v>0.295463321618657</v>
+        <v>0.295505791021036</v>
       </c>
       <c r="L2" t="n">
-        <v>0.49848234887489</v>
+        <v>0.498063798608243</v>
       </c>
       <c r="M2" t="n">
         <v>0.568215620604128</v>
       </c>
       <c r="N2" t="n">
-        <v>0.43396167722944</v>
+        <v>0.434044780311437</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2311635817686</v>
+        <v>0.231825238986011</v>
       </c>
       <c r="C3" t="n">
         <v>0.267798478633482</v>
@@ -520,16 +520,16 @@
         <v>0.3090858048213</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0928217672043425</v>
+        <v>0.0928686071010423</v>
       </c>
       <c r="L3" t="n">
-        <v>0.379199703236798</v>
+        <v>0.384326285472465</v>
       </c>
       <c r="M3" t="n">
         <v>0.276652048791799</v>
       </c>
       <c r="N3" t="n">
-        <v>0.176742950122449</v>
+        <v>0.1767713663003</v>
       </c>
     </row>
     <row r="4">
@@ -537,7 +537,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.222469320801112</v>
+        <v>0.221756139772863</v>
       </c>
       <c r="C4" t="n">
         <v>0.232233298737737</v>
@@ -564,16 +564,16 @@
         <v>0.246757749841191</v>
       </c>
       <c r="K4" t="n">
-        <v>0.202641554414314</v>
+        <v>0.202637183919994</v>
       </c>
       <c r="L4" t="n">
-        <v>0.119282645638092</v>
+        <v>0.113737513135779</v>
       </c>
       <c r="M4" t="n">
         <v>0.29156357181233</v>
       </c>
       <c r="N4" t="n">
-        <v>0.257218727106991</v>
+        <v>0.257273414011137</v>
       </c>
     </row>
     <row r="5">
@@ -581,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.318228826507911</v>
+        <v>0.318130319930611</v>
       </c>
       <c r="C5" t="n">
         <v>0.300537158888977</v>
@@ -608,16 +608,16 @@
         <v>0.220040188372387</v>
       </c>
       <c r="K5" t="n">
-        <v>0.451967910042794</v>
+        <v>0.451904268645967</v>
       </c>
       <c r="L5" t="n">
-        <v>0.227576614712255</v>
+        <v>0.227706886529004</v>
       </c>
       <c r="M5" t="n">
         <v>0.156534240851949</v>
       </c>
       <c r="N5" t="n">
-        <v>0.338566502379068</v>
+        <v>0.338155063004691</v>
       </c>
     </row>
     <row r="6">
@@ -625,7 +625,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.173132661925441</v>
+        <v>0.172200105515648</v>
       </c>
       <c r="C6" t="n">
         <v>0.156531801849446</v>
@@ -634,7 +634,7 @@
         <v>0.141785829240512</v>
       </c>
       <c r="E6" t="n">
-        <v>0.166158467826809</v>
+        <v>0.16615846782681</v>
       </c>
       <c r="F6" t="n">
         <v>0.10824933493899</v>
@@ -652,16 +652,16 @@
         <v>0.171252249950601</v>
       </c>
       <c r="K6" t="n">
-        <v>0.191667834390133</v>
+        <v>0.19166544338377</v>
       </c>
       <c r="L6" t="n">
-        <v>0.201756188330484</v>
+        <v>0.194374624175739</v>
       </c>
       <c r="M6" t="n">
         <v>0.141491115102103</v>
       </c>
       <c r="N6" t="n">
-        <v>0.17529311108781</v>
+        <v>0.175591451815085</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/group_defended_5_positive.xlsx
+++ b/xlsx/country_comparison/group_defended_5_positive.xlsx
@@ -449,7 +449,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.453581378758874</v>
+        <v>0.453645056076748</v>
       </c>
       <c r="C2" t="n">
         <v>0.500031777371218</v>
@@ -479,7 +479,7 @@
         <v>0.295505791021036</v>
       </c>
       <c r="L2" t="n">
-        <v>0.498063798608243</v>
+        <v>0.498518803138412</v>
       </c>
       <c r="M2" t="n">
         <v>0.568215620604128</v>
@@ -493,7 +493,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.231825238986011</v>
+        <v>0.232097580732653</v>
       </c>
       <c r="C3" t="n">
         <v>0.267798478633482</v>
@@ -523,7 +523,7 @@
         <v>0.0928686071010423</v>
       </c>
       <c r="L3" t="n">
-        <v>0.384326285472465</v>
+        <v>0.386272295961198</v>
       </c>
       <c r="M3" t="n">
         <v>0.276652048791799</v>
@@ -537,7 +537,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.221756139772863</v>
+        <v>0.221547475344095</v>
       </c>
       <c r="C4" t="n">
         <v>0.232233298737737</v>
@@ -567,7 +567,7 @@
         <v>0.202637183919994</v>
       </c>
       <c r="L4" t="n">
-        <v>0.113737513135779</v>
+        <v>0.112246507177215</v>
       </c>
       <c r="M4" t="n">
         <v>0.29156357181233</v>
@@ -581,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.318130319930611</v>
+        <v>0.318030317882592</v>
       </c>
       <c r="C5" t="n">
         <v>0.300537158888977</v>
@@ -611,7 +611,7 @@
         <v>0.451904268645967</v>
       </c>
       <c r="L5" t="n">
-        <v>0.227706886529004</v>
+        <v>0.22699232463484</v>
       </c>
       <c r="M5" t="n">
         <v>0.156534240851949</v>
@@ -625,7 +625,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172200105515648</v>
+        <v>0.172370897143246</v>
       </c>
       <c r="C6" t="n">
         <v>0.156531801849446</v>
@@ -634,7 +634,7 @@
         <v>0.141785829240512</v>
       </c>
       <c r="E6" t="n">
-        <v>0.16615846782681</v>
+        <v>0.166158467826809</v>
       </c>
       <c r="F6" t="n">
         <v>0.10824933493899</v>
@@ -655,7 +655,7 @@
         <v>0.19166544338377</v>
       </c>
       <c r="L6" t="n">
-        <v>0.194374624175739</v>
+        <v>0.195595011071219</v>
       </c>
       <c r="M6" t="n">
         <v>0.141491115102103</v>
